--- a/Data/Excels/Syncolon/150_160/FarPoints_69.xlsx
+++ b/Data/Excels/Syncolon/150_160/FarPoints_69.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A107"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>86,00</t>
+          <t>90,00</t>
         </is>
       </c>
     </row>
@@ -482,7 +482,11 @@
       <c r="A12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>828,00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -491,11 +495,7 @@
       <c r="A15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>792,00</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -513,11 +513,7 @@
       <c r="A21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>720,00</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -535,17 +531,17 @@
       <c r="A27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>686,00</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>752,00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -581,7 +577,11 @@
       <c r="A41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>718,00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -611,7 +611,11 @@
       <c r="A51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>632,00</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -629,7 +633,11 @@
       <c r="A57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>580,00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -644,147 +652,7 @@
       <c r="A62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>676,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>574,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>232,00</t>
         </is>
